--- a/sensitivityAnalysis.xlsx
+++ b/sensitivityAnalysis.xlsx
@@ -578,10 +578,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>197.665533044528</v>
+        <v>1188.76394785277</v>
       </c>
       <c r="E2" t="n">
-        <v>1028.10356382211</v>
+        <v>4031.66462460737</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -598,10 +598,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>114.308696556318</v>
+        <v>431.71286429538</v>
       </c>
       <c r="E3" t="n">
-        <v>599.340312154469</v>
+        <v>1717.56919129383</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -618,10 +618,10 @@
         <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>106.59081420644</v>
+        <v>430.679509468211</v>
       </c>
       <c r="E4" t="n">
-        <v>593.808633197995</v>
+        <v>1786.30898018643</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -638,10 +638,10 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>119.097722230767</v>
+        <v>453.760015872465</v>
       </c>
       <c r="E5" t="n">
-        <v>597.134341120409</v>
+        <v>1732.13350110129</v>
       </c>
       <c r="F5" t="s">
         <v>21</v>
@@ -658,10 +658,10 @@
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>105.836500667821</v>
+        <v>413.929724645746</v>
       </c>
       <c r="E6" t="n">
-        <v>470.59338101091</v>
+        <v>1449.95130880882</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -678,10 +678,10 @@
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>14.7003042458415</v>
+        <v>4.97252003250094</v>
       </c>
       <c r="E7" t="n">
-        <v>175.619381946629</v>
+        <v>87.1622655614361</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -698,10 +698,10 @@
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>13.4566246890123</v>
+        <v>4.52960263220592</v>
       </c>
       <c r="E8" t="n">
-        <v>145.490913568033</v>
+        <v>72.5951345175307</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -718,10 +718,10 @@
         <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>101.556004756263</v>
+        <v>403.425655221146</v>
       </c>
       <c r="E9" t="n">
-        <v>555.790649021807</v>
+        <v>1664.24182039179</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -738,10 +738,10 @@
         <v>36</v>
       </c>
       <c r="D10" t="n">
-        <v>115.066599344991</v>
+        <v>481.029906187055</v>
       </c>
       <c r="E10" t="n">
-        <v>647.971158285788</v>
+        <v>1984.96567737501</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -758,10 +758,10 @@
         <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>108.147971018044</v>
+        <v>439.140292653815</v>
       </c>
       <c r="E11" t="n">
-        <v>604.148793380807</v>
+        <v>1822.84366509261</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
@@ -778,10 +778,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>112.967881093658</v>
+        <v>446.536794584026</v>
       </c>
       <c r="E12" t="n">
-        <v>484.586015878128</v>
+        <v>1506.79380575863</v>
       </c>
       <c r="F12" t="s">
         <v>43</v>
@@ -798,10 +798,10 @@
         <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>97.8611982583539</v>
+        <v>380.145247250538</v>
       </c>
       <c r="E13" t="n">
-        <v>469.034016044062</v>
+        <v>1422.40183058126</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -818,10 +818,10 @@
         <v>49</v>
       </c>
       <c r="D14" t="n">
-        <v>122.838531092312</v>
+        <v>471.277550775068</v>
       </c>
       <c r="E14" t="n">
-        <v>586.145819549981</v>
+        <v>1724.69551002582</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
@@ -838,10 +838,10 @@
         <v>49</v>
       </c>
       <c r="D15" t="n">
-        <v>122.501287855636</v>
+        <v>471.350754305152</v>
       </c>
       <c r="E15" t="n">
-        <v>585.998545081793</v>
+        <v>1727.73943889003</v>
       </c>
       <c r="F15" t="s">
         <v>53</v>
@@ -858,10 +858,10 @@
         <v>20</v>
       </c>
       <c r="D16" t="n">
-        <v>105.516974868983</v>
+        <v>433.297336821606</v>
       </c>
       <c r="E16" t="n">
-        <v>506.067270664479</v>
+        <v>1527.73109413686</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -898,10 +898,10 @@
         <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>107.167994780009</v>
+        <v>454.757504942242</v>
       </c>
       <c r="E18" t="n">
-        <v>366.002902316616</v>
+        <v>1256.02302840765</v>
       </c>
       <c r="F18" t="s">
         <v>62</v>
@@ -918,10 +918,10 @@
         <v>65</v>
       </c>
       <c r="D19" t="n">
-        <v>133.039483966123</v>
+        <v>595.232840362122</v>
       </c>
       <c r="E19" t="n">
-        <v>745.861265993479</v>
+        <v>2378.00775614052</v>
       </c>
       <c r="F19" t="s">
         <v>66</v>
@@ -938,10 +938,10 @@
         <v>69</v>
       </c>
       <c r="D20" t="n">
-        <v>122.810338310298</v>
+        <v>471.6250209165</v>
       </c>
       <c r="E20" t="n">
-        <v>587.447422803268</v>
+        <v>1729.01586294697</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
